--- a/cedis.xlsx
+++ b/cedis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -627,10 +627,10 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>15.783471</v>
+        <v>29.11521657502338</v>
       </c>
       <c r="F7" t="n">
-        <v>-90.23075899999999</v>
+        <v>-111.000232630679</v>
       </c>
     </row>
     <row r="8">
@@ -1019,6 +1019,198 @@
       </c>
       <c r="F22" t="n">
         <v>-97.8636757</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>cedis ecommerce walmart</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr"/>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Walmart</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>19.7467676</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>-99.204067</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>cedis walmart la luz</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr"/>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Walmart</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>19.695354</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>-99.200388</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>cedis walmart chalco</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr"/>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Walmart</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>19.2507163</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>-98.8708499</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>cedis walmart san martin obispo, cuautitlán izcalli</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr"/>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Walmart</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>19.6012652</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>-99.2134885</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>cedis walmart perecederos villahermosa</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr"/>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Walmart</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>17.9835797</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>-93.1960106</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>cedis walmart megapark ok</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr"/>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Walmart</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>19.7438617</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>-99.2044743</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>cedis</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr"/>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Walmart</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>19.4636021</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>-99.1227415</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>cedis walmart guadalajara</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr"/>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Walmart</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>20.491304</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>-103.269173</t>
+        </is>
       </c>
     </row>
   </sheetData>
